--- a/neoapps/штат.xlsx
+++ b/neoapps/штат.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mergo24vi\Documents\нова особова\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\apps\pyclerk\neoapps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E469EBC-2C1C-4187-8644-78A7A414BBE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653D62EF-D2EA-40CA-AE1F-E14D7F026785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{2D12C125-E30A-4E1C-88F4-B5720E9AE4E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$AH$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1682,7 +1685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1756,12 +1759,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1780,20 +1777,11 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1803,6 +1791,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2140,8 +2134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CB82BC-5187-4E19-BF9E-FBCF3DC90A69}">
   <dimension ref="A1:AH49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2194,43 +2188,43 @@
       <c r="M1" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="O1" s="40" t="s">
+      <c r="O1" s="35" t="s">
         <v>488</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="Q1" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="35" t="s">
         <v>490</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="35" t="s">
         <v>491</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="35" t="s">
         <v>492</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="V1" s="35" t="s">
         <v>493</v>
       </c>
-      <c r="W1" s="40" t="s">
+      <c r="W1" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="X1" s="35" t="s">
         <v>495</v>
       </c>
-      <c r="Y1" s="40" t="s">
+      <c r="Y1" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="Z1" s="35" t="s">
         <v>497</v>
       </c>
       <c r="AB1" s="1" t="s">
@@ -2252,656 +2246,632 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="156" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" ht="117" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="8">
-        <v>31885</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6">
-        <v>3188407434</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="11" t="s">
-        <v>21</v>
+        <v>431</v>
+      </c>
+      <c r="B2" s="9">
+        <v>31490</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="10">
+        <v>3148924290</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="6" t="s">
+        <v>436</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>17</v>
+        <v>433</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>25</v>
+        <v>440</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="P2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>16</v>
+        <v>435</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="AB2" s="6" t="s">
-        <v>18</v>
+        <v>434</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>24</v>
+        <v>439</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG2" s="8">
-        <v>44818</v>
+        <v>49</v>
+      </c>
+      <c r="AG2" s="9">
+        <v>45294</v>
       </c>
       <c r="AH2" s="9">
-        <v>44822</v>
+        <v>45334</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="130" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>27</v>
+    <row r="3" spans="1:34" ht="65" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
+        <v>407</v>
       </c>
       <c r="B3" s="8">
-        <v>35836</v>
+        <v>26221</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6">
-        <v>3583506518</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="6"/>
+      <c r="D3" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="10">
+        <v>2622016935</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="P3" s="11" t="s">
-        <v>33</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="P3" s="15"/>
       <c r="S3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>28</v>
+        <v>238</v>
+      </c>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="9">
+        <v>44977</v>
       </c>
       <c r="AH3" s="9">
-        <v>44736</v>
+        <v>44982</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="117" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="13">
-        <v>35002</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10">
-        <v>3500105472</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="6"/>
+    <row r="4" spans="1:34" ht="65" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" s="8">
+        <v>30522</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="6">
+        <v>3052122354</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="J4" s="10"/>
       <c r="K4" s="6" t="s">
-        <v>48</v>
+        <v>241</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="P4" s="15" t="s">
-        <v>44</v>
-      </c>
+      <c r="P4" s="15"/>
       <c r="S4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
-      <c r="AF4" s="6" t="s">
-        <v>49</v>
-      </c>
+      <c r="AF4" s="10"/>
       <c r="AG4" s="14">
-        <v>45026</v>
+        <v>44977</v>
       </c>
       <c r="AH4" s="14">
-        <v>45054</v>
+        <v>44982</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="117" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" ht="65" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="B5" s="8">
-        <v>27420</v>
+        <v>31609</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6">
-        <v>2741912836</v>
+        <v>3160825351</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="11" t="s">
-        <v>54</v>
+      <c r="I5" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>58</v>
+        <v>207</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="P5" s="11" t="s">
-        <v>53</v>
+        <v>203</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="AD5" s="10"/>
       <c r="AF5" s="6" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="AG5" s="8">
-        <v>44818</v>
-      </c>
-      <c r="AH5" s="9">
-        <v>44633</v>
+        <v>44636</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>44734</v>
       </c>
     </row>
-    <row r="6" spans="1:34" ht="104" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
-        <v>59</v>
+    <row r="6" spans="1:34" ht="130" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>319</v>
       </c>
       <c r="B6" s="8">
-        <v>27390</v>
+        <v>35901</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="11" t="s">
-        <v>66</v>
+        <v>327</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="6">
-        <v>2738908415</v>
+        <v>3590007778</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>65</v>
+        <v>326</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="11" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>61</v>
+        <v>322</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>68</v>
+        <v>329</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="P6" s="11" t="s">
-        <v>63</v>
+        <v>325</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>60</v>
+        <v>321</v>
       </c>
       <c r="AB6" s="6" t="s">
-        <v>62</v>
+        <v>323</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>67</v>
+        <v>328</v>
       </c>
       <c r="AF6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AG6" s="8">
-        <v>44623</v>
-      </c>
-      <c r="AH6" s="8">
-        <v>44629</v>
+      <c r="AG6" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>45606</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="91" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="8">
-        <v>27069</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
-        <v>2706817575</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="11" t="s">
-        <v>74</v>
+      <c r="A7" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="B7" s="23">
+        <v>37883</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="10">
+        <v>3788207855</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>71</v>
+        <v>342</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="P7" s="11" t="s">
-        <v>73</v>
+        <v>344</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>70</v>
+        <v>301</v>
       </c>
       <c r="AB7" s="6" t="s">
-        <v>72</v>
+        <v>343</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AD7" s="10"/>
       <c r="AF7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG7" s="8">
-        <v>44630</v>
+        <v>49</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="AH7" s="9">
-        <v>44631</v>
+        <v>45381</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="130" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>79</v>
+    <row r="8" spans="1:34" ht="117" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>310</v>
       </c>
       <c r="B8" s="8">
-        <v>30240</v>
+        <v>34328</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="6"/>
+      <c r="D8" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="6">
-        <v>3023910816</v>
+        <v>3432707017</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>85</v>
+        <v>315</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="11" t="s">
-        <v>84</v>
+        <v>314</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>81</v>
+        <v>311</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>88</v>
+        <v>318</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="P8" s="11" t="s">
-        <v>83</v>
+        <v>313</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="AB8" s="6" t="s">
-        <v>82</v>
+        <v>312</v>
       </c>
       <c r="AC8" s="6" t="s">
         <v>19</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>87</v>
+        <v>317</v>
       </c>
       <c r="AF8" s="6" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="AG8" s="8">
-        <v>44616</v>
+        <v>44898</v>
       </c>
       <c r="AH8" s="9">
-        <v>45054</v>
+        <v>44937</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="78" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="18">
-        <v>30498</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="19">
-        <v>3049718754</v>
+    <row r="9" spans="1:34" ht="104" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="8">
+        <v>27390</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="6">
+        <v>2738908415</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="11" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="P9" s="11" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="AB9" s="6" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="AF9" s="6" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="AG9" s="8">
-        <v>45420</v>
-      </c>
-      <c r="AH9" s="9">
-        <v>45462</v>
+        <v>44623</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>44629</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="104" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="21">
-        <v>34374</v>
-      </c>
-      <c r="C10" s="21"/>
+    <row r="10" spans="1:34" ht="117" x14ac:dyDescent="0.35">
+      <c r="A10" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="B10" s="8">
+        <v>34458</v>
+      </c>
+      <c r="C10" s="8"/>
       <c r="D10" s="11" t="s">
-        <v>110</v>
+        <v>307</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="6">
-        <v>3437311014</v>
+        <v>3445708719</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>109</v>
+        <v>306</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="11" t="s">
-        <v>108</v>
+        <v>305</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>111</v>
+        <v>309</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="P10" s="11" t="s">
-        <v>107</v>
+        <v>304</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>103</v>
+        <v>301</v>
       </c>
       <c r="AB10" s="6" t="s">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD10" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="AF10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG10" s="11" t="s">
-        <v>102</v>
+        <v>26</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>44898</v>
       </c>
       <c r="AH10" s="9">
-        <v>45715</v>
+        <v>44937</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="104" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>112</v>
+    <row r="11" spans="1:34" ht="78" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
+        <v>462</v>
       </c>
       <c r="B11" s="8">
-        <v>34015</v>
+        <v>33265</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="6"/>
+      <c r="D11" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="E11" s="15"/>
       <c r="F11" s="6">
-        <v>3401412955</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="6"/>
+        <v>3326414191</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="H11" s="10"/>
       <c r="I11" s="11" t="s">
-        <v>117</v>
+        <v>467</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>114</v>
+        <v>464</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>121</v>
+        <v>471</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="P11" s="11" t="s">
-        <v>116</v>
+        <v>466</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>113</v>
+        <v>463</v>
       </c>
       <c r="AB11" s="6" t="s">
-        <v>115</v>
+        <v>465</v>
       </c>
       <c r="AC11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG11" s="8">
-        <v>45418</v>
+        <v>470</v>
+      </c>
+      <c r="AF11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG11" s="9">
+        <v>45237</v>
       </c>
       <c r="AH11" s="9">
-        <v>45462</v>
+        <v>45281</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="78" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="9">
-        <v>30687</v>
-      </c>
-      <c r="C12" s="9"/>
+    <row r="12" spans="1:34" ht="104" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="8">
+        <v>27420</v>
+      </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="6" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="22">
-        <v>3068616313</v>
+      <c r="F12" s="6">
+        <v>2741912836</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="11" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="P12" s="15" t="s">
-        <v>126</v>
+      <c r="P12" s="11" t="s">
+        <v>53</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="AB12" s="6" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="AC12" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD12" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="AF12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG12" s="23">
-        <v>44946</v>
-      </c>
-      <c r="AH12" s="23">
-        <v>44976</v>
+        <v>26</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>44818</v>
+      </c>
+      <c r="AH12" s="9">
+        <v>44633</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="78" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" ht="130" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="25">
-        <v>342815799</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="P13" s="22">
-        <v>730340918</v>
-      </c>
-      <c r="S13" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB13" s="20" t="s">
-        <v>135</v>
+        <v>157</v>
+      </c>
+      <c r="B13" s="8">
+        <v>33235</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="1">
+        <v>3323415646</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="P13" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB13" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="AC13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD13" s="20"/>
+        <v>161</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>165</v>
+      </c>
       <c r="AF13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG13" s="26">
-        <v>45753</v>
+        <v>167</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>44632</v>
       </c>
       <c r="AH13" s="14">
-        <v>45822</v>
+        <v>45604</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="65" x14ac:dyDescent="0.35">
@@ -2916,7 +2886,7 @@
         <v>146</v>
       </c>
       <c r="E14" s="15"/>
-      <c r="F14" s="27">
+      <c r="F14" s="25">
         <v>2964913789</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -2946,7 +2916,7 @@
       <c r="AC14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AD14" s="28"/>
+      <c r="AD14" s="26"/>
       <c r="AF14" s="6" t="s">
         <v>49</v>
       </c>
@@ -2957,330 +2927,330 @@
         <v>45822</v>
       </c>
     </row>
-    <row r="15" spans="1:34" ht="130" x14ac:dyDescent="0.35">
-      <c r="A15" s="29" t="s">
-        <v>148</v>
+    <row r="15" spans="1:34" ht="117" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>349</v>
       </c>
       <c r="B15" s="8">
-        <v>35718</v>
+        <v>37683</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E15" s="6"/>
+      <c r="D15" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="E15" s="15"/>
       <c r="F15" s="6">
-        <v>3571708135</v>
+        <v>3768208816</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>154</v>
+        <v>357</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="11" t="s">
-        <v>153</v>
+        <v>356</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>150</v>
+        <v>352</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>156</v>
+        <v>359</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="P15" s="11" t="s">
-        <v>152</v>
+        <v>355</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>149</v>
+        <v>351</v>
       </c>
       <c r="AB15" s="6" t="s">
-        <v>151</v>
+        <v>353</v>
       </c>
       <c r="AC15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD15" s="10"/>
+        <v>354</v>
+      </c>
+      <c r="AD15" s="6"/>
       <c r="AF15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AG15" s="8">
-        <v>44641</v>
+      <c r="AG15" s="6" t="s">
+        <v>350</v>
       </c>
       <c r="AH15" s="9">
-        <v>44642</v>
+        <v>45386</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="130" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>157</v>
+    <row r="16" spans="1:34" ht="117" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="B16" s="8">
-        <v>33235</v>
+        <v>31401</v>
       </c>
       <c r="C16" s="8"/>
-      <c r="D16" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E16" s="11"/>
+      <c r="D16" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="6"/>
       <c r="F16" s="6">
-        <v>3323415646</v>
+        <v>3140000611</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="15"/>
+      <c r="I16" s="11" t="s">
+        <v>173</v>
+      </c>
       <c r="J16" s="6" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="P16" s="11" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="AB16" s="6" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>167</v>
+        <v>49</v>
       </c>
       <c r="AG16" s="8">
-        <v>44632</v>
+        <v>44649</v>
       </c>
       <c r="AH16" s="9">
-        <v>45604</v>
+        <v>44818</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="117" x14ac:dyDescent="0.35">
-      <c r="A17" s="17" t="s">
-        <v>168</v>
+    <row r="17" spans="1:34" ht="130" x14ac:dyDescent="0.35">
+      <c r="A17" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="B17" s="8">
-        <v>31401</v>
+        <v>35718</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="6" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6">
-        <v>3140000611</v>
+        <v>3571708135</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="11" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="P17" s="11" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="AB17" s="6" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="AC17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD17" s="6" t="s">
-        <v>176</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AD17" s="10"/>
       <c r="AF17" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AG17" s="8">
-        <v>44649</v>
+        <v>44641</v>
       </c>
       <c r="AH17" s="9">
-        <v>44818</v>
+        <v>44642</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="65" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" ht="143" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>178</v>
+        <v>369</v>
       </c>
       <c r="B18" s="8">
-        <v>31047</v>
+        <v>32589</v>
       </c>
       <c r="C18" s="8"/>
-      <c r="D18" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="6"/>
+      <c r="D18" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="E18" s="11"/>
       <c r="F18" s="6">
-        <v>3104612473</v>
+        <v>3258822312</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>184</v>
+        <v>375</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="11" t="s">
-        <v>183</v>
+        <v>374</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>180</v>
+        <v>371</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>186</v>
+        <v>378</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="P18" s="11" t="s">
-        <v>182</v>
+        <v>373</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>179</v>
+        <v>370</v>
       </c>
       <c r="AB18" s="6" t="s">
-        <v>181</v>
+        <v>372</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD18" s="6"/>
+        <v>324</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>377</v>
+      </c>
       <c r="AF18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AG18" s="8">
-        <v>44994</v>
+        <v>44624</v>
       </c>
       <c r="AH18" s="8">
-        <v>45036</v>
+        <v>45604</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="130" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="8">
-        <v>33311</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="20" t="s">
-        <v>195</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="6">
-        <v>3331016892</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" s="20"/>
+    <row r="19" spans="1:34" ht="78" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="9">
+        <v>30687</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="22">
+        <v>3068616313</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="11" t="s">
-        <v>193</v>
+        <v>127</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="P19" s="11" t="s">
-        <v>192</v>
+      <c r="P19" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>188</v>
+        <v>123</v>
       </c>
       <c r="AB19" s="6" t="s">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>196</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AD19" s="10"/>
       <c r="AF19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AG19" s="8">
-        <v>44629</v>
-      </c>
-      <c r="AH19" s="9">
-        <v>44630</v>
+      <c r="AG19" s="23">
+        <v>44946</v>
+      </c>
+      <c r="AH19" s="23">
+        <v>44976</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="65" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>198</v>
+    <row r="20" spans="1:34" ht="117" x14ac:dyDescent="0.35">
+      <c r="A20" s="27" t="s">
+        <v>261</v>
       </c>
       <c r="B20" s="8">
-        <v>31609</v>
+        <v>35684</v>
       </c>
       <c r="C20" s="8"/>
-      <c r="D20" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" s="6"/>
+      <c r="D20" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" s="11"/>
       <c r="F20" s="6">
-        <v>3160825351</v>
+        <v>3568310719</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>205</v>
+        <v>267</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="6" t="s">
-        <v>204</v>
+      <c r="I20" s="11" t="s">
+        <v>266</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>200</v>
+        <v>263</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>207</v>
+        <v>269</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="P20" s="11" t="s">
-        <v>203</v>
+      <c r="P20" s="15" t="s">
+        <v>265</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>199</v>
+        <v>262</v>
       </c>
       <c r="AB20" s="6" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="AC20" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AD20" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="AD20" s="6"/>
       <c r="AF20" s="6" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="AG20" s="8">
-        <v>44636</v>
-      </c>
-      <c r="AH20" s="8">
-        <v>44734</v>
+        <v>44618</v>
+      </c>
+      <c r="AH20" s="9">
+        <v>45378</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="117" x14ac:dyDescent="0.35">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="28" t="s">
         <v>208</v>
       </c>
       <c r="B21" s="8">
@@ -3332,59 +3302,59 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="143" x14ac:dyDescent="0.35">
-      <c r="A22" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C22" s="11"/>
+    <row r="22" spans="1:34" ht="104" x14ac:dyDescent="0.35">
+      <c r="A22" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="B22" s="8">
+        <v>32659</v>
+      </c>
+      <c r="C22" s="8"/>
       <c r="D22" s="11" t="s">
-        <v>225</v>
+        <v>404</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="6">
-        <v>3049526391</v>
+        <v>3265811273</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>224</v>
+        <v>403</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="11" t="s">
-        <v>223</v>
+        <v>402</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>220</v>
+        <v>399</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>227</v>
+        <v>406</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="P22" s="11" t="s">
-        <v>222</v>
+        <v>401</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>219</v>
+        <v>398</v>
       </c>
       <c r="AB22" s="6" t="s">
-        <v>221</v>
+        <v>400</v>
       </c>
       <c r="AC22" s="6" t="s">
         <v>19</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>226</v>
+        <v>405</v>
       </c>
       <c r="AF22" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AG22" s="8">
-        <v>44745</v>
-      </c>
-      <c r="AH22" s="8">
-        <v>45255</v>
+        <v>44763</v>
+      </c>
+      <c r="AH22" s="9">
+        <v>44786</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="78" x14ac:dyDescent="0.35">
@@ -3440,1389 +3410,1418 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="65" x14ac:dyDescent="0.35">
-      <c r="A24" s="32" t="s">
-        <v>237</v>
+    <row r="24" spans="1:34" ht="130" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="B24" s="8">
-        <v>30522</v>
+        <v>33311</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="E24" s="15"/>
+      <c r="D24" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="20"/>
       <c r="F24" s="6">
-        <v>3052122354</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+        <v>3331016892</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24" s="20"/>
       <c r="I24" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="J24" s="10"/>
+        <v>193</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="K24" s="6" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="P24" s="15"/>
+      <c r="P24" s="11" t="s">
+        <v>192</v>
+      </c>
       <c r="S24" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="9">
-        <v>44977</v>
+        <v>188</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC24" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG24" s="8">
+        <v>44629</v>
       </c>
       <c r="AH24" s="9">
-        <v>44982</v>
+        <v>44630</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="117" x14ac:dyDescent="0.35">
-      <c r="A25" s="33" t="s">
-        <v>242</v>
+    <row r="25" spans="1:34" ht="91" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>279</v>
       </c>
       <c r="B25" s="4">
-        <v>30639</v>
+        <v>35728</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="3" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="1">
-        <v>3063810736</v>
+        <v>3572704652</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="11" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="P25" s="3" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="AC25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD25" s="27"/>
+        <v>43</v>
+      </c>
+      <c r="AD25" s="1"/>
       <c r="AF25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AG25" s="4">
-        <v>44628</v>
-      </c>
-      <c r="AH25" s="14">
-        <v>44629</v>
+      <c r="AG25" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AH25" s="4">
+        <v>45281</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="104" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" ht="130" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
-        <v>251</v>
+        <v>412</v>
       </c>
       <c r="B26" s="8">
-        <v>34273</v>
+        <v>28010</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="11" t="s">
-        <v>258</v>
+        <v>419</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="6">
-        <v>3427204753</v>
+        <v>2800910698</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>257</v>
+        <v>418</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="11" t="s">
-        <v>256</v>
+        <v>417</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>253</v>
+        <v>413</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>260</v>
+        <v>421</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="P26" s="11" t="s">
-        <v>255</v>
+        <v>416</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>254</v>
+        <v>414</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>19</v>
+        <v>415</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>259</v>
+        <v>420</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="AG26" s="8">
-        <v>45236</v>
+        <v>44633</v>
       </c>
       <c r="AH26" s="9">
-        <v>45281</v>
+        <v>44633</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="117" x14ac:dyDescent="0.35">
-      <c r="A27" s="29" t="s">
-        <v>261</v>
+    <row r="27" spans="1:34" ht="130" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
+        <v>441</v>
       </c>
       <c r="B27" s="8">
-        <v>35684</v>
+        <v>30181</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="11" t="s">
-        <v>268</v>
+        <v>448</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="6">
-        <v>3568310719</v>
+        <v>3018005432</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>267</v>
+        <v>447</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="11" t="s">
-        <v>266</v>
+        <v>446</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>263</v>
+        <v>443</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>269</v>
+        <v>450</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="P27" s="15" t="s">
-        <v>265</v>
+      <c r="P27" s="11" t="s">
+        <v>445</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>262</v>
+        <v>442</v>
       </c>
       <c r="AB27" s="6" t="s">
-        <v>264</v>
+        <v>444</v>
       </c>
       <c r="AC27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AD27" s="6"/>
+      <c r="AD27" s="6" t="s">
+        <v>449</v>
+      </c>
       <c r="AF27" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AG27" s="8">
-        <v>44618</v>
-      </c>
-      <c r="AH27" s="14">
-        <v>45378</v>
+        <v>44633</v>
+      </c>
+      <c r="AH27" s="4">
+        <v>45060</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="78" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
-        <v>270</v>
+    <row r="28" spans="1:34" ht="91" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
+        <v>451</v>
       </c>
       <c r="B28" s="9">
-        <v>31640</v>
+        <v>36700</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="E28" s="15"/>
+      <c r="D28" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="E28" s="11"/>
       <c r="F28" s="10">
-        <v>3163920612</v>
+        <v>3669901132</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>275</v>
+        <v>458</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="11" t="s">
-        <v>74</v>
+      <c r="I28" s="6" t="s">
+        <v>457</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>272</v>
+        <v>454</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>278</v>
+        <v>461</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="P28" s="11" t="s">
-        <v>274</v>
+      <c r="P28" s="15" t="s">
+        <v>456</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>271</v>
+        <v>453</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>273</v>
+        <v>455</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="AD28" s="6" t="s">
-        <v>277</v>
+        <v>460</v>
       </c>
       <c r="AF28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG28" s="8">
-        <v>45324</v>
+        <v>89</v>
+      </c>
+      <c r="AG28" s="10" t="s">
+        <v>452</v>
       </c>
       <c r="AH28" s="14">
-        <v>45378</v>
+        <v>45386</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="91" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="B29" s="8">
-        <v>35728</v>
-      </c>
-      <c r="C29" s="8"/>
+    <row r="29" spans="1:34" ht="104" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="13">
+        <v>35002</v>
+      </c>
+      <c r="C29" s="13"/>
       <c r="D29" s="11" t="s">
-        <v>287</v>
+        <v>47</v>
       </c>
       <c r="E29" s="11"/>
-      <c r="F29" s="6">
-        <v>3572704652</v>
+      <c r="F29" s="10">
+        <v>3500105472</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>286</v>
+        <v>46</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="11" t="s">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>288</v>
+        <v>48</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="P29" s="11" t="s">
-        <v>284</v>
+      <c r="P29" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="AB29" s="6" t="s">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="AC29" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AD29" s="6"/>
+      <c r="AD29" s="10"/>
       <c r="AF29" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AG29" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AH29" s="8">
-        <v>45281</v>
+      <c r="AG29" s="9">
+        <v>45026</v>
+      </c>
+      <c r="AH29" s="9">
+        <v>45054</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="91" x14ac:dyDescent="0.35">
-      <c r="A30" s="32" t="s">
-        <v>289</v>
+    <row r="30" spans="1:34" ht="117" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="B30" s="8">
-        <v>37917</v>
+        <v>30639</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="11" t="s">
-        <v>298</v>
+        <v>249</v>
       </c>
       <c r="E30" s="11"/>
       <c r="F30" s="6">
-        <v>3791604558</v>
+        <v>3063810736</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>297</v>
+        <v>248</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="11" t="s">
-        <v>296</v>
+        <v>247</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>299</v>
+        <v>250</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="P30" s="11" t="s">
-        <v>295</v>
+        <v>246</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>294</v>
+        <v>19</v>
       </c>
       <c r="AD30" s="10"/>
       <c r="AF30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AG30" s="6" t="s">
-        <v>290</v>
+      <c r="AG30" s="8">
+        <v>44628</v>
       </c>
       <c r="AH30" s="9">
-        <v>45381</v>
+        <v>44629</v>
       </c>
     </row>
-    <row r="31" spans="1:34" ht="117" x14ac:dyDescent="0.35">
-      <c r="A31" s="34" t="s">
-        <v>300</v>
+    <row r="31" spans="1:34" ht="104" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="B31" s="8">
-        <v>34458</v>
+        <v>34015</v>
       </c>
       <c r="C31" s="8"/>
-      <c r="D31" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="E31" s="11"/>
+      <c r="D31" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="6"/>
       <c r="F31" s="6">
-        <v>3445708719</v>
+        <v>3401412955</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>306</v>
+        <v>118</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="11" t="s">
-        <v>305</v>
+        <v>117</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>302</v>
+        <v>114</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>309</v>
+        <v>121</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="P31" s="11" t="s">
-        <v>304</v>
+        <v>116</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>301</v>
+        <v>113</v>
       </c>
       <c r="AB31" s="6" t="s">
-        <v>303</v>
+        <v>115</v>
       </c>
       <c r="AC31" s="6" t="s">
         <v>19</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF31" s="6" t="s">
-        <v>26</v>
+        <v>120</v>
+      </c>
+      <c r="AF31" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="AG31" s="8">
-        <v>44898</v>
+        <v>45418</v>
       </c>
       <c r="AH31" s="9">
-        <v>44937</v>
+        <v>45462</v>
       </c>
     </row>
-    <row r="32" spans="1:34" ht="117" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
-        <v>310</v>
+    <row r="32" spans="1:34" ht="91" x14ac:dyDescent="0.35">
+      <c r="A32" s="30" t="s">
+        <v>289</v>
       </c>
       <c r="B32" s="8">
-        <v>34328</v>
+        <v>37917</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="11" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="E32" s="11"/>
       <c r="F32" s="6">
-        <v>3432707017</v>
+        <v>3791604558</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="11" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="P32" s="11" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD32" s="6" t="s">
-        <v>317</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="AD32" s="10"/>
       <c r="AF32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG32" s="8">
-        <v>44898</v>
+        <v>49</v>
+      </c>
+      <c r="AG32" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="AH32" s="9">
-        <v>44937</v>
+        <v>45381</v>
       </c>
     </row>
-    <row r="33" spans="1:34" ht="130" x14ac:dyDescent="0.35">
-      <c r="A33" s="29" t="s">
-        <v>319</v>
+    <row r="33" spans="1:34" ht="104" x14ac:dyDescent="0.35">
+      <c r="A33" s="31" t="s">
+        <v>379</v>
       </c>
       <c r="B33" s="8">
-        <v>35901</v>
+        <v>36549</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="11" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="E33" s="11"/>
       <c r="F33" s="6">
-        <v>3590007778</v>
+        <v>3654804011</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>326</v>
+        <v>385</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="11" t="s">
-        <v>108</v>
+        <v>384</v>
       </c>
       <c r="J33" s="6" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>329</v>
+        <v>387</v>
       </c>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="P33" s="11" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>321</v>
+        <v>380</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>323</v>
+        <v>382</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD33" s="6" t="s">
-        <v>328</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="AD33" s="10"/>
       <c r="AF33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG33" s="6" t="s">
-        <v>320</v>
+        <v>49</v>
+      </c>
+      <c r="AG33" s="8">
+        <v>44620</v>
       </c>
       <c r="AH33" s="9">
-        <v>45606</v>
+        <v>45385</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="104" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" ht="130" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>330</v>
+        <v>27</v>
       </c>
       <c r="B34" s="8">
-        <v>32045</v>
+        <v>35836</v>
       </c>
       <c r="C34" s="8"/>
-      <c r="D34" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="E34" s="11"/>
+      <c r="D34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="6"/>
       <c r="F34" s="6">
-        <v>3204417816</v>
+        <v>3583506518</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>337</v>
+        <v>35</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="11" t="s">
-        <v>336</v>
+        <v>34</v>
       </c>
       <c r="J34" s="6" t="s">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>339</v>
+        <v>38</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="P34" s="15" t="s">
-        <v>335</v>
+      <c r="P34" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>331</v>
+        <v>29</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>333</v>
+        <v>31</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD34" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="AF34" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG34" s="8">
-        <v>44816</v>
+        <v>26</v>
+      </c>
+      <c r="AG34" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="AH34" s="9">
-        <v>44818</v>
+        <v>44736</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="91" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
-        <v>340</v>
-      </c>
-      <c r="B35" s="23">
-        <v>37883</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="10">
-        <v>3788207855</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="H35" s="10"/>
-      <c r="I35" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="P35" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="S35" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="AB35" s="6" t="s">
-        <v>343</v>
+    <row r="35" spans="1:34" ht="78" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="37">
+        <v>342815799</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="22"/>
+      <c r="I35" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="P35" s="22">
+        <v>730340918</v>
+      </c>
+      <c r="S35" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB35" s="20" t="s">
+        <v>135</v>
       </c>
       <c r="AC35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AD35" s="10"/>
+      <c r="AD35" s="20"/>
       <c r="AF35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AG35" s="6" t="s">
-        <v>341</v>
+      <c r="AG35" s="23">
+        <v>45753</v>
       </c>
       <c r="AH35" s="9">
-        <v>45381</v>
+        <v>45822</v>
       </c>
     </row>
-    <row r="36" spans="1:34" ht="117" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
-        <v>349</v>
+    <row r="36" spans="1:34" ht="104" x14ac:dyDescent="0.35">
+      <c r="A36" s="27" t="s">
+        <v>251</v>
       </c>
       <c r="B36" s="8">
-        <v>37683</v>
+        <v>34273</v>
       </c>
       <c r="C36" s="8"/>
-      <c r="D36" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="E36" s="15"/>
+      <c r="D36" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E36" s="11"/>
       <c r="F36" s="6">
-        <v>3768208816</v>
+        <v>3427204753</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="11" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="J36" s="6" t="s">
-        <v>352</v>
+        <v>253</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="P36" s="11" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>351</v>
+        <v>252</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>353</v>
+        <v>254</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="AD36" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="AD36" s="6" t="s">
+        <v>259</v>
+      </c>
       <c r="AF36" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG36" s="6" t="s">
-        <v>350</v>
+        <v>26</v>
+      </c>
+      <c r="AG36" s="8">
+        <v>45236</v>
       </c>
       <c r="AH36" s="9">
-        <v>45386</v>
+        <v>45281</v>
       </c>
     </row>
     <row r="37" spans="1:34" ht="78" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B37" s="8">
-        <v>29961</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="6">
-        <v>2996017174</v>
+        <v>270</v>
+      </c>
+      <c r="B37" s="9">
+        <v>31640</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="10">
+        <v>3163920612</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>366</v>
+        <v>275</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="11" t="s">
-        <v>365</v>
+        <v>74</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>362</v>
+        <v>272</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>368</v>
+        <v>278</v>
       </c>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="P37" s="11" t="s">
-        <v>364</v>
+        <v>274</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>361</v>
+        <v>271</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>363</v>
+        <v>273</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD37" s="10"/>
+        <v>94</v>
+      </c>
+      <c r="AD37" s="6" t="s">
+        <v>277</v>
+      </c>
       <c r="AF37" s="6" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="AG37" s="8">
-        <v>45146</v>
+        <v>45324</v>
       </c>
       <c r="AH37" s="9">
-        <v>45216</v>
+        <v>45378</v>
       </c>
     </row>
-    <row r="38" spans="1:34" ht="143" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B38" s="8">
-        <v>32589</v>
-      </c>
-      <c r="C38" s="8"/>
+    <row r="38" spans="1:34" ht="117" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="B38" s="21">
+        <v>33346</v>
+      </c>
+      <c r="C38" s="21"/>
       <c r="D38" s="11" t="s">
-        <v>376</v>
+        <v>479</v>
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="6">
-        <v>3258822312</v>
+        <v>3334520312</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>375</v>
+        <v>478</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="11" t="s">
-        <v>374</v>
+        <v>477</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>371</v>
+        <v>474</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>378</v>
+        <v>480</v>
       </c>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="P38" s="11" t="s">
-        <v>373</v>
+        <v>476</v>
       </c>
       <c r="S38" s="6" t="s">
-        <v>370</v>
+        <v>473</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>372</v>
+        <v>475</v>
       </c>
       <c r="AC38" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD38" s="6" t="s">
-        <v>377</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AD38" s="10"/>
       <c r="AF38" s="6" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="AG38" s="8">
-        <v>44624</v>
-      </c>
-      <c r="AH38" s="8">
-        <v>45604</v>
+        <v>45290</v>
+      </c>
+      <c r="AH38" s="9">
+        <v>45334</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="104" x14ac:dyDescent="0.35">
-      <c r="A39" s="35" t="s">
-        <v>379</v>
+    <row r="39" spans="1:34" ht="91" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B39" s="8">
-        <v>36549</v>
+        <v>27069</v>
       </c>
       <c r="C39" s="8"/>
-      <c r="D39" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="E39" s="11"/>
+      <c r="D39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="6"/>
       <c r="F39" s="6">
-        <v>3654804011</v>
+        <v>2706817575</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>385</v>
+        <v>75</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="11" t="s">
-        <v>384</v>
+        <v>74</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>381</v>
+        <v>71</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>387</v>
+        <v>78</v>
       </c>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="P39" s="11" t="s">
-        <v>383</v>
+        <v>73</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>380</v>
+        <v>70</v>
       </c>
       <c r="AB39" s="6" t="s">
-        <v>382</v>
+        <v>72</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD39" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="AD39" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="AF39" s="6" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="AG39" s="8">
-        <v>44620</v>
+        <v>44630</v>
       </c>
       <c r="AH39" s="9">
-        <v>45385</v>
+        <v>44631</v>
       </c>
     </row>
-    <row r="40" spans="1:34" ht="104" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" ht="91" x14ac:dyDescent="0.35">
       <c r="A40" s="29" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="B40" s="8">
-        <v>33212</v>
+        <v>33123</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="11" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="6">
-        <v>3321117315</v>
+        <v>3312209313</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="11" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="P40" s="11" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>16</v>
+        <v>423</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD40" s="6" t="s">
-        <v>395</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="AD40" s="10"/>
       <c r="AF40" s="6" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="AG40" s="8">
-        <v>44818</v>
+        <v>44898</v>
       </c>
       <c r="AH40" s="9">
-        <v>44822</v>
+        <v>44937</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="104" x14ac:dyDescent="0.35">
-      <c r="A41" s="31" t="s">
-        <v>397</v>
+    <row r="41" spans="1:34" ht="130" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="B41" s="8">
-        <v>32659</v>
+        <v>30240</v>
       </c>
       <c r="C41" s="8"/>
-      <c r="D41" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="E41" s="11"/>
+      <c r="D41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="6"/>
       <c r="F41" s="6">
-        <v>3265811273</v>
+        <v>3023910816</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>403</v>
+        <v>85</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="11" t="s">
-        <v>402</v>
+        <v>84</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>399</v>
+        <v>81</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>406</v>
+        <v>88</v>
       </c>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="P41" s="11" t="s">
-        <v>401</v>
+        <v>83</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AB41" s="6" t="s">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="AC41" s="6" t="s">
         <v>19</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>405</v>
+        <v>87</v>
       </c>
       <c r="AF41" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG41" s="8">
+        <v>44616</v>
+      </c>
+      <c r="AH41" s="9">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" ht="143" x14ac:dyDescent="0.35">
+      <c r="A42" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="6">
+        <v>3049526391</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H42" s="6"/>
+      <c r="I42" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="P42" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="S42" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB42" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="AC42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD42" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF42" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AG41" s="8">
-        <v>44763</v>
-      </c>
-      <c r="AH41" s="9">
-        <v>44786</v>
+      <c r="AG42" s="8">
+        <v>44745</v>
+      </c>
+      <c r="AH42" s="8">
+        <v>45255</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="65" x14ac:dyDescent="0.35">
-      <c r="A42" s="36" t="s">
-        <v>407</v>
-      </c>
-      <c r="B42" s="8">
-        <v>26221</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="10">
-        <v>2622016935</v>
-      </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="K42" s="37" t="s">
-        <v>411</v>
-      </c>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
-      <c r="P42" s="15"/>
-      <c r="S42" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AF42" s="10"/>
-      <c r="AG42" s="9">
-        <v>44977</v>
-      </c>
-      <c r="AH42" s="9">
-        <v>44982</v>
-      </c>
-    </row>
-    <row r="43" spans="1:34" ht="130" x14ac:dyDescent="0.35">
-      <c r="A43" s="31" t="s">
-        <v>412</v>
-      </c>
-      <c r="B43" s="8">
-        <v>28010</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="6">
-        <v>2800910698</v>
+    <row r="43" spans="1:34" ht="78" x14ac:dyDescent="0.35">
+      <c r="A43" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="18">
+        <v>30498</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="19">
+        <v>3049718754</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>418</v>
+        <v>97</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="11" t="s">
-        <v>417</v>
+        <v>96</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>413</v>
+        <v>92</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>421</v>
+        <v>100</v>
       </c>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="P43" s="11" t="s">
-        <v>416</v>
+        <v>95</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="AB43" s="6" t="s">
-        <v>414</v>
+        <v>93</v>
       </c>
       <c r="AC43" s="6" t="s">
-        <v>415</v>
+        <v>94</v>
       </c>
       <c r="AD43" s="6" t="s">
-        <v>420</v>
+        <v>99</v>
       </c>
       <c r="AF43" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AG43" s="8">
-        <v>44633</v>
+        <v>45420</v>
       </c>
       <c r="AH43" s="9">
-        <v>44633</v>
+        <v>45462</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="91" x14ac:dyDescent="0.35">
-      <c r="A44" s="31" t="s">
-        <v>422</v>
+    <row r="44" spans="1:34" ht="104" x14ac:dyDescent="0.35">
+      <c r="A44" s="27" t="s">
+        <v>388</v>
       </c>
       <c r="B44" s="8">
-        <v>33123</v>
+        <v>33212</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="11" t="s">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="6">
-        <v>3312209313</v>
+        <v>3321117315</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="11" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="P44" s="11" t="s">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>423</v>
+        <v>16</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD44" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="AD44" s="6" t="s">
+        <v>395</v>
+      </c>
       <c r="AF44" s="6" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="AG44" s="8">
-        <v>44898</v>
+        <v>44818</v>
       </c>
       <c r="AH44" s="9">
-        <v>44937</v>
+        <v>44822</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="117" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:34" ht="78" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B45" s="9">
-        <v>31490</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="E45" s="15"/>
-      <c r="F45" s="10">
-        <v>3148924290</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="H45" s="10"/>
-      <c r="I45" s="6" t="s">
-        <v>436</v>
+        <v>360</v>
+      </c>
+      <c r="B45" s="8">
+        <v>29961</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="6">
+        <v>2996017174</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H45" s="6"/>
+      <c r="I45" s="11" t="s">
+        <v>365</v>
       </c>
       <c r="J45" s="6" t="s">
-        <v>433</v>
+        <v>362</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>440</v>
+        <v>368</v>
       </c>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="P45" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="S45" s="10" t="s">
-        <v>432</v>
+        <v>364</v>
+      </c>
+      <c r="S45" s="6" t="s">
+        <v>361</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>434</v>
+        <v>363</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD45" s="6" t="s">
-        <v>439</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AD45" s="10"/>
       <c r="AF45" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG45" s="9">
-        <v>45294</v>
+        <v>26</v>
+      </c>
+      <c r="AG45" s="8">
+        <v>45146</v>
       </c>
       <c r="AH45" s="9">
-        <v>45334</v>
+        <v>45216</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="130" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
-        <v>441</v>
+    <row r="46" spans="1:34" ht="156" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="B46" s="8">
-        <v>30181</v>
+        <v>31885</v>
       </c>
       <c r="C46" s="8"/>
-      <c r="D46" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="E46" s="11"/>
+      <c r="D46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="6"/>
       <c r="F46" s="6">
-        <v>3018005432</v>
+        <v>3188407434</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>447</v>
+        <v>22</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="11" t="s">
-        <v>446</v>
+        <v>21</v>
       </c>
       <c r="J46" s="6" t="s">
-        <v>443</v>
+        <v>17</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>450</v>
+        <v>25</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="P46" s="11" t="s">
-        <v>445</v>
+        <v>20</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>442</v>
+        <v>16</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>444</v>
+        <v>18</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>19</v>
       </c>
       <c r="AD46" s="6" t="s">
-        <v>449</v>
+        <v>24</v>
       </c>
       <c r="AF46" s="6" t="s">
         <v>26</v>
       </c>
       <c r="AG46" s="8">
-        <v>44633</v>
-      </c>
-      <c r="AH46" s="8">
-        <v>45060</v>
+        <v>44818</v>
+      </c>
+      <c r="AH46" s="9">
+        <v>44822</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="91" x14ac:dyDescent="0.35">
-      <c r="A47" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="B47" s="9">
-        <v>36700</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="10">
-        <v>3669901132</v>
+    <row r="47" spans="1:34" ht="65" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="8">
+        <v>31047</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6">
+        <v>3104612473</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>458</v>
+        <v>184</v>
       </c>
       <c r="H47" s="6"/>
-      <c r="I47" s="6" t="s">
-        <v>457</v>
+      <c r="I47" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="J47" s="6" t="s">
-        <v>454</v>
+        <v>180</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>461</v>
+        <v>186</v>
       </c>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-      <c r="P47" s="15" t="s">
-        <v>456</v>
+      <c r="P47" s="11" t="s">
+        <v>182</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>453</v>
+        <v>179</v>
       </c>
       <c r="AB47" s="6" t="s">
-        <v>455</v>
+        <v>181</v>
       </c>
       <c r="AC47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AD47" s="6" t="s">
-        <v>460</v>
-      </c>
+      <c r="AD47" s="6"/>
       <c r="AF47" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG47" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="AH47" s="9">
-        <v>45386</v>
+        <v>26</v>
+      </c>
+      <c r="AG47" s="8">
+        <v>44994</v>
+      </c>
+      <c r="AH47" s="8">
+        <v>45036</v>
       </c>
     </row>
-    <row r="48" spans="1:34" ht="78" x14ac:dyDescent="0.35">
-      <c r="A48" s="29" t="s">
-        <v>462</v>
-      </c>
-      <c r="B48" s="8">
-        <v>33265</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="E48" s="15"/>
+    <row r="48" spans="1:34" ht="104" x14ac:dyDescent="0.35">
+      <c r="A48" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="21">
+        <v>34374</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="11"/>
       <c r="F48" s="6">
-        <v>3326414191</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="H48" s="10"/>
+        <v>3437311014</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" s="6"/>
       <c r="I48" s="11" t="s">
-        <v>467</v>
+        <v>108</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>464</v>
+        <v>104</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>471</v>
+        <v>111</v>
       </c>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="P48" s="11" t="s">
-        <v>466</v>
+        <v>107</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>463</v>
+        <v>103</v>
       </c>
       <c r="AB48" s="6" t="s">
-        <v>465</v>
+        <v>105</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD48" s="6" t="s">
-        <v>470</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="AD48" s="11"/>
       <c r="AF48" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG48" s="9">
-        <v>45237</v>
+        <v>49</v>
+      </c>
+      <c r="AG48" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="AH48" s="9">
-        <v>45281</v>
+        <v>45715</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="117" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="B49" s="21">
-        <v>33346</v>
-      </c>
-      <c r="C49" s="21"/>
+    <row r="49" spans="1:34" ht="104" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="B49" s="8">
+        <v>32045</v>
+      </c>
+      <c r="C49" s="8"/>
       <c r="D49" s="11" t="s">
-        <v>479</v>
+        <v>338</v>
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="6">
-        <v>3334520312</v>
+        <v>3204417816</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>478</v>
+        <v>337</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="11" t="s">
-        <v>477</v>
+        <v>336</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>474</v>
+        <v>332</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>480</v>
+        <v>339</v>
       </c>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-      <c r="P49" s="11" t="s">
-        <v>476</v>
+      <c r="P49" s="15" t="s">
+        <v>335</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>473</v>
+        <v>331</v>
       </c>
       <c r="AB49" s="6" t="s">
-        <v>475</v>
+        <v>333</v>
       </c>
       <c r="AC49" s="6" t="s">
-        <v>32</v>
+        <v>334</v>
       </c>
       <c r="AD49" s="10"/>
       <c r="AF49" s="6" t="s">
         <v>49</v>
       </c>
       <c r="AG49" s="8">
-        <v>45290</v>
+        <v>44816</v>
       </c>
       <c r="AH49" s="9">
-        <v>45334</v>
+        <v>44818</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AH1" xr:uid="{A3CB82BC-5187-4E19-BF9E-FBCF3DC90A69}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH49">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>